--- a/public/assets/docs/seating-arrangement.xlsx
+++ b/public/assets/docs/seating-arrangement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1181">
   <si>
     <t>Full Name</t>
   </si>
@@ -3425,13 +3425,167 @@
   </si>
   <si>
     <t>E Block - IV Floor</t>
+  </si>
+  <si>
+    <t>Se.No</t>
+  </si>
+  <si>
+    <r>
+      <t>Si</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Signature</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>natue</t>
+    </r>
+  </si>
+  <si>
+    <t>Mechanical Engineering (Sandwich)</t>
+  </si>
+  <si>
+    <t>MATH OLYMPIAD 2025 - SEATING ARRANGEMENT - IT LAB 1</t>
+  </si>
+  <si>
+    <t>PSG COLLEGE OF TECHNOLOGY, COIMBATORE - Dept of Mathematics/Dept of AMCS/Alumni Association</t>
+  </si>
+  <si>
+    <t>MATH OLYMPIAD 2025 - SEATING ARRANGEMENT - IT LAB 2</t>
+  </si>
+  <si>
+    <t>Uthra R</t>
+  </si>
+  <si>
+    <t>Janani.V</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>GUHA AATHIBAN S</t>
+  </si>
+  <si>
+    <t>KESHORE P R</t>
+  </si>
+  <si>
+    <t>Supriya selvi</t>
+  </si>
+  <si>
+    <t>ARUNA V S</t>
+  </si>
+  <si>
+    <t>SUPRITHA S</t>
+  </si>
+  <si>
+    <t>Nishalini</t>
+  </si>
+  <si>
+    <t>Praveen.M</t>
+  </si>
+  <si>
+    <t>Kiranya.J</t>
+  </si>
+  <si>
+    <t>Subash M</t>
+  </si>
+  <si>
+    <t>Thanya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aishvarya Mahendra Chakravarthy </t>
+  </si>
+  <si>
+    <t>24I272</t>
+  </si>
+  <si>
+    <t>24I228</t>
+  </si>
+  <si>
+    <t>24E605</t>
+  </si>
+  <si>
+    <t>24L217</t>
+  </si>
+  <si>
+    <t>24M257</t>
+  </si>
+  <si>
+    <t>24PD05</t>
+  </si>
+  <si>
+    <t>24pd38</t>
+  </si>
+  <si>
+    <t>24PD25</t>
+  </si>
+  <si>
+    <t>24R237</t>
+  </si>
+  <si>
+    <t>24l228</t>
+  </si>
+  <si>
+    <t>24E645</t>
+  </si>
+  <si>
+    <t>24I369</t>
+  </si>
+  <si>
+    <t>24pt02</t>
+  </si>
+  <si>
+    <t>24i272@psgtech.ac.in</t>
+  </si>
+  <si>
+    <t>24i228@psgtech.ac.in</t>
+  </si>
+  <si>
+    <t>24e605@psgtech.ac.in</t>
+  </si>
+  <si>
+    <t>24L217@psgtech.ac.in</t>
+  </si>
+  <si>
+    <t>24m257@psgtech.ac.in</t>
+  </si>
+  <si>
+    <t>24pd05@psgtech.ac.in</t>
+  </si>
+  <si>
+    <t>24pd38@psgtech.ac.in</t>
+  </si>
+  <si>
+    <t>24pd25@psgtech.ac.in</t>
+  </si>
+  <si>
+    <t>24r237@psgtech.ac.in</t>
+  </si>
+  <si>
+    <t>24e645@psgtech.ac.in</t>
+  </si>
+  <si>
+    <t>thanyakarthik987@gmail.com</t>
+  </si>
+  <si>
+    <t>24pt02@psgtech.ac.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3463,8 +3617,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3501,8 +3687,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -3719,11 +3923,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3853,21 +4191,56 @@
     <xf numFmtId="11" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3879,6 +4252,108 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4176,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="J310" sqref="J310"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="J314" sqref="J314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4192,31 +4667,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="73" t="s">
         <v>1131</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="74" t="s">
         <v>1132</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="75" t="s">
         <v>1133</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -11489,1777 +11964,2014 @@
       <c r="H305" s="41"/>
     </row>
     <row r="306" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A306" s="27" t="s">
+      <c r="A306" s="92" t="s">
         <v>656</v>
       </c>
-      <c r="B306" s="28">
+      <c r="B306" s="93">
         <v>9360956664</v>
       </c>
-      <c r="C306" s="29" t="s">
+      <c r="C306" s="94" t="s">
         <v>657</v>
       </c>
-      <c r="D306" s="29" t="s">
+      <c r="D306" s="94" t="s">
         <v>658</v>
       </c>
-      <c r="E306" s="29" t="s">
+      <c r="E306" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="F306" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G306" s="30" t="s">
+      <c r="F306" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G306" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="H306" s="31"/>
+      <c r="H306" s="96"/>
     </row>
     <row r="307" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A307" s="32" t="s">
+      <c r="A307" s="97" t="s">
         <v>930</v>
       </c>
-      <c r="B307" s="33">
+      <c r="B307" s="98">
         <v>7339247296</v>
       </c>
-      <c r="C307" s="34" t="s">
+      <c r="C307" s="99" t="s">
         <v>931</v>
       </c>
-      <c r="D307" s="34" t="s">
+      <c r="D307" s="99" t="s">
         <v>932</v>
       </c>
-      <c r="E307" s="34" t="s">
+      <c r="E307" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="F307" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G307" s="30" t="s">
+      <c r="F307" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G307" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="H307" s="31" t="s">
+      <c r="H307" s="96" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A308" s="27" t="s">
+      <c r="A308" s="92" t="s">
         <v>933</v>
       </c>
-      <c r="B308" s="28">
+      <c r="B308" s="93">
         <v>7550342435</v>
       </c>
-      <c r="C308" s="29" t="s">
+      <c r="C308" s="94" t="s">
         <v>934</v>
       </c>
-      <c r="D308" s="29" t="s">
+      <c r="D308" s="94" t="s">
         <v>935</v>
       </c>
-      <c r="E308" s="29" t="s">
+      <c r="E308" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="F308" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G308" s="30" t="s">
+      <c r="F308" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G308" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="H308" s="31" t="s">
+      <c r="H308" s="96" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A309" s="32" t="s">
+      <c r="A309" s="97" t="s">
         <v>936</v>
       </c>
-      <c r="B309" s="33">
+      <c r="B309" s="98">
         <v>9363183595</v>
       </c>
-      <c r="C309" s="34" t="s">
+      <c r="C309" s="99" t="s">
         <v>937</v>
       </c>
-      <c r="D309" s="34" t="s">
+      <c r="D309" s="99" t="s">
         <v>938</v>
       </c>
-      <c r="E309" s="34" t="s">
+      <c r="E309" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F309" s="34" t="s">
+      <c r="F309" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G309" s="30" t="s">
+      <c r="G309" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H309" s="31"/>
+      <c r="H309" s="96"/>
     </row>
     <row r="310" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A310" s="27" t="s">
+      <c r="A310" s="92" t="s">
         <v>939</v>
       </c>
-      <c r="B310" s="28">
+      <c r="B310" s="93">
         <v>6383608791</v>
       </c>
-      <c r="C310" s="29" t="s">
+      <c r="C310" s="94" t="s">
         <v>940</v>
       </c>
-      <c r="D310" s="29" t="s">
+      <c r="D310" s="94" t="s">
         <v>941</v>
       </c>
-      <c r="E310" s="29" t="s">
+      <c r="E310" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="F310" s="29" t="s">
+      <c r="F310" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="G310" s="30" t="s">
+      <c r="G310" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H310" s="31"/>
+      <c r="H310" s="96"/>
     </row>
     <row r="311" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A311" s="32" t="s">
+      <c r="A311" s="97" t="s">
         <v>942</v>
       </c>
-      <c r="B311" s="33">
+      <c r="B311" s="98">
         <v>8248195097</v>
       </c>
-      <c r="C311" s="34" t="s">
+      <c r="C311" s="99" t="s">
         <v>943</v>
       </c>
-      <c r="D311" s="34" t="s">
+      <c r="D311" s="99" t="s">
         <v>944</v>
       </c>
-      <c r="E311" s="34" t="s">
+      <c r="E311" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="F311" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G311" s="30" t="s">
+      <c r="F311" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G311" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="H311" s="31"/>
+      <c r="H311" s="96"/>
     </row>
     <row r="312" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A312" s="27" t="s">
+      <c r="A312" s="92" t="s">
         <v>945</v>
       </c>
-      <c r="B312" s="28">
+      <c r="B312" s="93">
         <v>9597002149</v>
       </c>
-      <c r="C312" s="29" t="s">
+      <c r="C312" s="94" t="s">
         <v>946</v>
       </c>
-      <c r="D312" s="29" t="s">
+      <c r="D312" s="94" t="s">
         <v>947</v>
       </c>
-      <c r="E312" s="29" t="s">
+      <c r="E312" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F312" s="29" t="s">
+      <c r="F312" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G312" s="30" t="s">
+      <c r="G312" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H312" s="31"/>
+      <c r="H312" s="96"/>
     </row>
     <row r="313" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A313" s="32" t="s">
+      <c r="A313" s="97" t="s">
         <v>948</v>
       </c>
-      <c r="B313" s="33">
+      <c r="B313" s="98">
         <v>9345165403</v>
       </c>
-      <c r="C313" s="34" t="s">
+      <c r="C313" s="99" t="s">
         <v>949</v>
       </c>
-      <c r="D313" s="34" t="s">
+      <c r="D313" s="99" t="s">
         <v>950</v>
       </c>
-      <c r="E313" s="34" t="s">
+      <c r="E313" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="F313" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G313" s="30" t="s">
+      <c r="F313" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G313" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="H313" s="31"/>
+      <c r="H313" s="96"/>
     </row>
     <row r="314" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A314" s="27" t="s">
+      <c r="A314" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="B314" s="28">
+      <c r="B314" s="93">
         <v>9080517194</v>
       </c>
-      <c r="C314" s="29" t="s">
+      <c r="C314" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="D314" s="29" t="s">
+      <c r="D314" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="E314" s="29" t="s">
+      <c r="E314" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="F314" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G314" s="30" t="s">
+      <c r="F314" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G314" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="H314" s="31"/>
+      <c r="H314" s="96"/>
     </row>
     <row r="315" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A315" s="32" t="s">
+      <c r="A315" s="97" t="s">
         <v>951</v>
       </c>
-      <c r="B315" s="33">
+      <c r="B315" s="98">
         <v>9500595367</v>
       </c>
-      <c r="C315" s="34" t="s">
+      <c r="C315" s="99" t="s">
         <v>952</v>
       </c>
-      <c r="D315" s="34" t="s">
+      <c r="D315" s="99" t="s">
         <v>953</v>
       </c>
-      <c r="E315" s="34" t="s">
+      <c r="E315" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F315" s="34" t="s">
+      <c r="F315" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G315" s="30" t="s">
+      <c r="G315" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H315" s="31"/>
+      <c r="H315" s="96"/>
     </row>
     <row r="316" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A316" s="27" t="s">
+      <c r="A316" s="92" t="s">
         <v>954</v>
       </c>
-      <c r="B316" s="28">
+      <c r="B316" s="93">
         <v>8520822240</v>
       </c>
-      <c r="C316" s="29" t="s">
+      <c r="C316" s="94" t="s">
         <v>955</v>
       </c>
-      <c r="D316" s="29" t="s">
+      <c r="D316" s="94" t="s">
         <v>956</v>
       </c>
-      <c r="E316" s="29" t="s">
+      <c r="E316" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F316" s="29" t="s">
+      <c r="F316" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G316" s="30" t="s">
+      <c r="G316" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H316" s="31"/>
+      <c r="H316" s="96"/>
     </row>
     <row r="317" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A317" s="32" t="s">
+      <c r="A317" s="97" t="s">
         <v>957</v>
       </c>
-      <c r="B317" s="33">
+      <c r="B317" s="98">
         <v>8220222337</v>
       </c>
-      <c r="C317" s="34" t="s">
+      <c r="C317" s="99" t="s">
         <v>958</v>
       </c>
-      <c r="D317" s="34" t="s">
+      <c r="D317" s="99" t="s">
         <v>959</v>
       </c>
-      <c r="E317" s="34" t="s">
+      <c r="E317" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F317" s="34" t="s">
+      <c r="F317" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G317" s="30" t="s">
+      <c r="G317" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H317" s="31"/>
+      <c r="H317" s="96"/>
     </row>
     <row r="318" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A318" s="27" t="s">
+      <c r="A318" s="92" t="s">
         <v>960</v>
       </c>
-      <c r="B318" s="28">
+      <c r="B318" s="93">
         <v>9043770017</v>
       </c>
-      <c r="C318" s="29" t="s">
+      <c r="C318" s="94" t="s">
         <v>961</v>
       </c>
-      <c r="D318" s="29" t="s">
+      <c r="D318" s="94" t="s">
         <v>962</v>
       </c>
-      <c r="E318" s="29" t="s">
+      <c r="E318" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F318" s="29" t="s">
+      <c r="F318" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G318" s="30" t="s">
+      <c r="G318" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H318" s="31"/>
+      <c r="H318" s="96"/>
     </row>
     <row r="319" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A319" s="32" t="s">
+      <c r="A319" s="97" t="s">
         <v>963</v>
       </c>
-      <c r="B319" s="33">
+      <c r="B319" s="98">
         <v>6369760802</v>
       </c>
-      <c r="C319" s="34" t="s">
+      <c r="C319" s="99" t="s">
         <v>964</v>
       </c>
-      <c r="D319" s="34" t="s">
+      <c r="D319" s="99" t="s">
         <v>965</v>
       </c>
-      <c r="E319" s="34" t="s">
+      <c r="E319" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F319" s="34" t="s">
+      <c r="F319" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G319" s="30" t="s">
+      <c r="G319" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H319" s="31"/>
+      <c r="H319" s="96"/>
     </row>
     <row r="320" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A320" s="27" t="s">
+      <c r="A320" s="92" t="s">
         <v>966</v>
       </c>
-      <c r="B320" s="28">
+      <c r="B320" s="93">
         <v>6369130701</v>
       </c>
-      <c r="C320" s="29" t="s">
+      <c r="C320" s="94" t="s">
         <v>967</v>
       </c>
-      <c r="D320" s="29" t="s">
+      <c r="D320" s="94" t="s">
         <v>968</v>
       </c>
-      <c r="E320" s="29" t="s">
+      <c r="E320" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F320" s="29" t="s">
+      <c r="F320" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G320" s="30" t="s">
+      <c r="G320" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H320" s="31"/>
+      <c r="H320" s="96"/>
     </row>
     <row r="321" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A321" s="32" t="s">
+      <c r="A321" s="97" t="s">
         <v>969</v>
       </c>
-      <c r="B321" s="33">
+      <c r="B321" s="98">
         <v>8111010942</v>
       </c>
-      <c r="C321" s="34" t="s">
+      <c r="C321" s="99" t="s">
         <v>970</v>
       </c>
-      <c r="D321" s="34" t="s">
+      <c r="D321" s="99" t="s">
         <v>971</v>
       </c>
-      <c r="E321" s="34" t="s">
+      <c r="E321" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F321" s="34" t="s">
+      <c r="F321" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G321" s="30" t="s">
+      <c r="G321" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H321" s="31"/>
+      <c r="H321" s="96"/>
     </row>
     <row r="322" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A322" s="27" t="s">
+      <c r="A322" s="92" t="s">
         <v>972</v>
       </c>
-      <c r="B322" s="28">
+      <c r="B322" s="93">
         <v>8531957119</v>
       </c>
-      <c r="C322" s="29" t="s">
+      <c r="C322" s="94" t="s">
         <v>973</v>
       </c>
-      <c r="D322" s="29" t="s">
+      <c r="D322" s="94" t="s">
         <v>974</v>
       </c>
-      <c r="E322" s="29" t="s">
+      <c r="E322" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F322" s="29" t="s">
+      <c r="F322" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G322" s="30" t="s">
+      <c r="G322" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H322" s="31"/>
+      <c r="H322" s="96"/>
     </row>
     <row r="323" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A323" s="32" t="s">
+      <c r="A323" s="97" t="s">
         <v>975</v>
       </c>
-      <c r="B323" s="33">
+      <c r="B323" s="98">
         <v>9489650080</v>
       </c>
-      <c r="C323" s="34" t="s">
+      <c r="C323" s="99" t="s">
         <v>976</v>
       </c>
-      <c r="D323" s="34" t="s">
+      <c r="D323" s="99" t="s">
         <v>977</v>
       </c>
-      <c r="E323" s="34" t="s">
+      <c r="E323" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F323" s="34" t="s">
+      <c r="F323" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G323" s="30" t="s">
+      <c r="G323" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H323" s="31"/>
+      <c r="H323" s="96"/>
     </row>
     <row r="324" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A324" s="27" t="s">
+      <c r="A324" s="92" t="s">
         <v>978</v>
       </c>
-      <c r="B324" s="28">
+      <c r="B324" s="93">
         <v>6380723217</v>
       </c>
-      <c r="C324" s="35">
+      <c r="C324" s="100">
         <v>2.4000000000000001E+124</v>
       </c>
-      <c r="D324" s="29" t="s">
+      <c r="D324" s="94" t="s">
         <v>979</v>
       </c>
-      <c r="E324" s="29" t="s">
+      <c r="E324" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="F324" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G324" s="30" t="s">
+      <c r="F324" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G324" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="H324" s="31"/>
+      <c r="H324" s="96"/>
     </row>
     <row r="325" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A325" s="32" t="s">
+      <c r="A325" s="97" t="s">
         <v>980</v>
       </c>
-      <c r="B325" s="33">
+      <c r="B325" s="98">
         <v>7222055555</v>
       </c>
-      <c r="C325" s="34" t="s">
+      <c r="C325" s="99" t="s">
         <v>981</v>
       </c>
-      <c r="D325" s="34" t="s">
+      <c r="D325" s="99" t="s">
         <v>982</v>
       </c>
-      <c r="E325" s="34" t="s">
+      <c r="E325" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F325" s="34" t="s">
+      <c r="F325" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G325" s="30" t="s">
+      <c r="G325" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H325" s="31"/>
+      <c r="H325" s="96"/>
     </row>
     <row r="326" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A326" s="27" t="s">
+      <c r="A326" s="92" t="s">
         <v>983</v>
       </c>
-      <c r="B326" s="28">
+      <c r="B326" s="93">
         <v>8610555873</v>
       </c>
-      <c r="C326" s="29" t="s">
+      <c r="C326" s="94" t="s">
         <v>984</v>
       </c>
-      <c r="D326" s="29" t="s">
+      <c r="D326" s="94" t="s">
         <v>985</v>
       </c>
-      <c r="E326" s="29" t="s">
+      <c r="E326" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F326" s="29" t="s">
+      <c r="F326" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G326" s="30" t="s">
+      <c r="G326" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H326" s="31"/>
+      <c r="H326" s="96"/>
     </row>
     <row r="327" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A327" s="32" t="s">
+      <c r="A327" s="97" t="s">
         <v>986</v>
       </c>
-      <c r="B327" s="33">
+      <c r="B327" s="98">
         <v>7780639969</v>
       </c>
-      <c r="C327" s="34" t="s">
+      <c r="C327" s="99" t="s">
         <v>987</v>
       </c>
-      <c r="D327" s="34" t="s">
+      <c r="D327" s="99" t="s">
         <v>988</v>
       </c>
-      <c r="E327" s="34" t="s">
+      <c r="E327" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F327" s="34" t="s">
+      <c r="F327" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G327" s="30" t="s">
+      <c r="G327" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H327" s="31"/>
+      <c r="H327" s="96"/>
     </row>
     <row r="328" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A328" s="27" t="s">
+      <c r="A328" s="92" t="s">
         <v>989</v>
       </c>
-      <c r="B328" s="28">
+      <c r="B328" s="93">
         <v>8300928210</v>
       </c>
-      <c r="C328" s="29" t="s">
+      <c r="C328" s="94" t="s">
         <v>990</v>
       </c>
-      <c r="D328" s="29" t="s">
+      <c r="D328" s="94" t="s">
         <v>991</v>
       </c>
-      <c r="E328" s="29" t="s">
+      <c r="E328" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F328" s="29" t="s">
+      <c r="F328" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G328" s="30" t="s">
+      <c r="G328" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H328" s="31"/>
+      <c r="H328" s="96"/>
     </row>
     <row r="329" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A329" s="32" t="s">
+      <c r="A329" s="97" t="s">
         <v>992</v>
       </c>
-      <c r="B329" s="33">
+      <c r="B329" s="98">
         <v>6379814741</v>
       </c>
-      <c r="C329" s="34" t="s">
+      <c r="C329" s="99" t="s">
         <v>993</v>
       </c>
-      <c r="D329" s="34" t="s">
+      <c r="D329" s="99" t="s">
         <v>994</v>
       </c>
-      <c r="E329" s="34" t="s">
+      <c r="E329" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F329" s="34" t="s">
+      <c r="F329" s="99" t="s">
         <v>736</v>
       </c>
-      <c r="G329" s="30" t="s">
+      <c r="G329" s="95" t="s">
         <v>737</v>
       </c>
-      <c r="H329" s="31"/>
+      <c r="H329" s="96"/>
     </row>
     <row r="330" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A330" s="27" t="s">
+      <c r="A330" s="92" t="s">
         <v>995</v>
       </c>
-      <c r="B330" s="28">
+      <c r="B330" s="93">
         <v>9047266421</v>
       </c>
-      <c r="C330" s="29" t="s">
+      <c r="C330" s="94" t="s">
         <v>996</v>
       </c>
-      <c r="D330" s="29" t="s">
+      <c r="D330" s="94" t="s">
         <v>997</v>
       </c>
-      <c r="E330" s="29" t="s">
+      <c r="E330" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F330" s="29" t="s">
+      <c r="F330" s="94" t="s">
         <v>736</v>
       </c>
-      <c r="G330" s="30" t="s">
+      <c r="G330" s="95" t="s">
         <v>737</v>
       </c>
-      <c r="H330" s="31"/>
+      <c r="H330" s="96"/>
     </row>
     <row r="331" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A331" s="32" t="s">
+      <c r="A331" s="97" t="s">
         <v>998</v>
       </c>
-      <c r="B331" s="33">
+      <c r="B331" s="98">
         <v>8438787095</v>
       </c>
-      <c r="C331" s="34" t="s">
+      <c r="C331" s="99" t="s">
         <v>999</v>
       </c>
-      <c r="D331" s="34" t="s">
+      <c r="D331" s="99" t="s">
         <v>1000</v>
       </c>
-      <c r="E331" s="34" t="s">
+      <c r="E331" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F331" s="34" t="s">
+      <c r="F331" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="G331" s="30" t="s">
+      <c r="G331" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H331" s="31"/>
+      <c r="H331" s="96"/>
     </row>
     <row r="332" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A332" s="27" t="s">
+      <c r="A332" s="92" t="s">
         <v>1001</v>
       </c>
-      <c r="B332" s="28">
+      <c r="B332" s="93">
         <v>9042454413</v>
       </c>
-      <c r="C332" s="29" t="s">
+      <c r="C332" s="94" t="s">
         <v>1002</v>
       </c>
-      <c r="D332" s="29" t="s">
+      <c r="D332" s="94" t="s">
         <v>1003</v>
       </c>
-      <c r="E332" s="29" t="s">
+      <c r="E332" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F332" s="29" t="s">
+      <c r="F332" s="94" t="s">
         <v>736</v>
       </c>
-      <c r="G332" s="30" t="s">
+      <c r="G332" s="95" t="s">
         <v>737</v>
       </c>
-      <c r="H332" s="31"/>
+      <c r="H332" s="96"/>
     </row>
     <row r="333" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A333" s="32" t="s">
+      <c r="A333" s="97" t="s">
         <v>998</v>
       </c>
-      <c r="B333" s="33">
+      <c r="B333" s="98">
         <v>8438787095</v>
       </c>
-      <c r="C333" s="34" t="s">
+      <c r="C333" s="99" t="s">
         <v>999</v>
       </c>
-      <c r="D333" s="34" t="s">
+      <c r="D333" s="99" t="s">
         <v>1000</v>
       </c>
-      <c r="E333" s="34" t="s">
+      <c r="E333" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F333" s="34" t="s">
+      <c r="F333" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="G333" s="30" t="s">
+      <c r="G333" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H333" s="31"/>
+      <c r="H333" s="96"/>
     </row>
     <row r="334" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A334" s="27" t="s">
+      <c r="A334" s="92" t="s">
         <v>1004</v>
       </c>
-      <c r="B334" s="28">
+      <c r="B334" s="93">
         <v>6380819399</v>
       </c>
-      <c r="C334" s="29" t="s">
+      <c r="C334" s="94" t="s">
         <v>1005</v>
       </c>
-      <c r="D334" s="29" t="s">
+      <c r="D334" s="94" t="s">
         <v>1006</v>
       </c>
-      <c r="E334" s="29" t="s">
+      <c r="E334" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F334" s="29" t="s">
+      <c r="F334" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G334" s="30" t="s">
+      <c r="G334" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H334" s="31"/>
+      <c r="H334" s="96"/>
     </row>
     <row r="335" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A335" s="32" t="s">
+      <c r="A335" s="97" t="s">
         <v>1007</v>
       </c>
-      <c r="B335" s="33">
+      <c r="B335" s="98">
         <v>8870877978</v>
       </c>
-      <c r="C335" s="34" t="s">
+      <c r="C335" s="99" t="s">
         <v>1008</v>
       </c>
-      <c r="D335" s="34" t="s">
+      <c r="D335" s="99" t="s">
         <v>1009</v>
       </c>
-      <c r="E335" s="34" t="s">
+      <c r="E335" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F335" s="34" t="s">
+      <c r="F335" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G335" s="30" t="s">
+      <c r="G335" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H335" s="31"/>
+      <c r="H335" s="96"/>
     </row>
     <row r="336" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A336" s="27" t="s">
+      <c r="A336" s="92" t="s">
         <v>1010</v>
       </c>
-      <c r="B336" s="28">
+      <c r="B336" s="93">
         <v>9597141246</v>
       </c>
-      <c r="C336" s="29" t="s">
+      <c r="C336" s="94" t="s">
         <v>1011</v>
       </c>
-      <c r="D336" s="29" t="s">
+      <c r="D336" s="94" t="s">
         <v>1012</v>
       </c>
-      <c r="E336" s="29" t="s">
+      <c r="E336" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="F336" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G336" s="30" t="s">
+      <c r="F336" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G336" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="H336" s="31"/>
+      <c r="H336" s="96"/>
     </row>
     <row r="337" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A337" s="32" t="s">
+      <c r="A337" s="97" t="s">
         <v>1013</v>
       </c>
-      <c r="B337" s="33">
+      <c r="B337" s="98">
         <v>9500960850</v>
       </c>
-      <c r="C337" s="34" t="s">
+      <c r="C337" s="99" t="s">
         <v>1014</v>
       </c>
-      <c r="D337" s="34" t="s">
+      <c r="D337" s="99" t="s">
         <v>1015</v>
       </c>
-      <c r="E337" s="34" t="s">
+      <c r="E337" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="F337" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G337" s="30" t="s">
+      <c r="F337" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G337" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="H337" s="31"/>
+      <c r="H337" s="96"/>
     </row>
     <row r="338" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A338" s="27" t="s">
+      <c r="A338" s="92" t="s">
         <v>1016</v>
       </c>
-      <c r="B338" s="28">
+      <c r="B338" s="93">
         <v>9025844400</v>
       </c>
-      <c r="C338" s="29" t="s">
+      <c r="C338" s="94" t="s">
         <v>1017</v>
       </c>
-      <c r="D338" s="29" t="s">
+      <c r="D338" s="94" t="s">
         <v>1018</v>
       </c>
-      <c r="E338" s="29" t="s">
+      <c r="E338" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="F338" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G338" s="30" t="s">
+      <c r="F338" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G338" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="H338" s="31"/>
+      <c r="H338" s="96"/>
     </row>
     <row r="339" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A339" s="32" t="s">
+      <c r="A339" s="97" t="s">
         <v>1019</v>
       </c>
-      <c r="B339" s="33">
+      <c r="B339" s="98">
         <v>9003084439</v>
       </c>
-      <c r="C339" s="34" t="s">
+      <c r="C339" s="99" t="s">
         <v>1020</v>
       </c>
-      <c r="D339" s="34" t="s">
+      <c r="D339" s="99" t="s">
         <v>1021</v>
       </c>
-      <c r="E339" s="34" t="s">
+      <c r="E339" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F339" s="34" t="s">
+      <c r="F339" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G339" s="30" t="s">
+      <c r="G339" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="H339" s="31"/>
+      <c r="H339" s="96"/>
     </row>
     <row r="340" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A340" s="27" t="s">
+      <c r="A340" s="92" t="s">
         <v>1022</v>
       </c>
-      <c r="B340" s="28">
+      <c r="B340" s="93">
         <v>9043975567</v>
       </c>
-      <c r="C340" s="47" t="s">
+      <c r="C340" s="101" t="s">
         <v>1023</v>
       </c>
-      <c r="D340" s="47" t="s">
+      <c r="D340" s="101" t="s">
         <v>1024</v>
       </c>
-      <c r="E340" s="29" t="s">
+      <c r="E340" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="F340" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G340" s="30" t="s">
+      <c r="F340" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G340" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="H340" s="31"/>
+      <c r="H340" s="96"/>
     </row>
     <row r="341" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A341" s="32" t="s">
+      <c r="A341" s="97" t="s">
         <v>1025</v>
       </c>
-      <c r="B341" s="33">
+      <c r="B341" s="98">
         <v>8248470981</v>
       </c>
-      <c r="C341" s="34" t="s">
+      <c r="C341" s="99" t="s">
         <v>1026</v>
       </c>
-      <c r="D341" s="34" t="s">
+      <c r="D341" s="99" t="s">
         <v>1027</v>
       </c>
-      <c r="E341" s="34" t="s">
+      <c r="E341" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F341" s="34" t="s">
+      <c r="F341" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="G341" s="30" t="s">
+      <c r="G341" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H341" s="31"/>
+      <c r="H341" s="96"/>
     </row>
     <row r="342" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A342" s="27" t="s">
+      <c r="A342" s="92" t="s">
         <v>1028</v>
       </c>
-      <c r="B342" s="28">
+      <c r="B342" s="93">
         <v>8248470981</v>
       </c>
-      <c r="C342" s="29" t="s">
+      <c r="C342" s="94" t="s">
         <v>1029</v>
       </c>
-      <c r="D342" s="29" t="s">
+      <c r="D342" s="94" t="s">
         <v>1027</v>
       </c>
-      <c r="E342" s="29" t="s">
+      <c r="E342" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="F342" s="29" t="s">
+      <c r="F342" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="G342" s="30" t="s">
+      <c r="G342" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H342" s="31"/>
+      <c r="H342" s="96"/>
     </row>
     <row r="343" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A343" s="32" t="s">
+      <c r="A343" s="97" t="s">
         <v>1030</v>
       </c>
-      <c r="B343" s="33">
+      <c r="B343" s="98">
         <v>7358239594</v>
       </c>
-      <c r="C343" s="34" t="s">
+      <c r="C343" s="99" t="s">
         <v>1031</v>
       </c>
-      <c r="D343" s="34" t="s">
+      <c r="D343" s="99" t="s">
         <v>1032</v>
       </c>
-      <c r="E343" s="34" t="s">
+      <c r="E343" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="F343" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G343" s="30" t="s">
+      <c r="F343" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G343" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="H343" s="31"/>
+      <c r="H343" s="96"/>
     </row>
     <row r="344" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A344" s="27" t="s">
+      <c r="A344" s="92" t="s">
         <v>1033</v>
       </c>
-      <c r="B344" s="28">
+      <c r="B344" s="93">
         <v>9080204499</v>
       </c>
-      <c r="C344" s="29" t="s">
+      <c r="C344" s="94" t="s">
         <v>1034</v>
       </c>
-      <c r="D344" s="29" t="s">
+      <c r="D344" s="94" t="s">
         <v>1035</v>
       </c>
-      <c r="E344" s="29" t="s">
+      <c r="E344" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="F344" s="29" t="s">
+      <c r="F344" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="G344" s="30" t="s">
+      <c r="G344" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H344" s="31"/>
+      <c r="H344" s="96"/>
     </row>
     <row r="345" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A345" s="32" t="s">
+      <c r="A345" s="97" t="s">
         <v>1036</v>
       </c>
-      <c r="B345" s="33">
+      <c r="B345" s="98">
         <v>8637452151</v>
       </c>
-      <c r="C345" s="34" t="s">
+      <c r="C345" s="99" t="s">
         <v>1037</v>
       </c>
-      <c r="D345" s="34" t="s">
+      <c r="D345" s="99" t="s">
         <v>1038</v>
       </c>
-      <c r="E345" s="34" t="s">
+      <c r="E345" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F345" s="34" t="s">
+      <c r="F345" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="G345" s="30" t="s">
+      <c r="G345" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H345" s="31"/>
+      <c r="H345" s="96"/>
     </row>
     <row r="346" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A346" s="27" t="s">
+      <c r="A346" s="92" t="s">
         <v>1036</v>
       </c>
-      <c r="B346" s="28">
+      <c r="B346" s="93">
         <v>8637452151</v>
       </c>
-      <c r="C346" s="29" t="s">
+      <c r="C346" s="94" t="s">
         <v>1037</v>
       </c>
-      <c r="D346" s="29" t="s">
+      <c r="D346" s="94" t="s">
         <v>1039</v>
       </c>
-      <c r="E346" s="29" t="s">
+      <c r="E346" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="F346" s="29" t="s">
+      <c r="F346" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="G346" s="30" t="s">
+      <c r="G346" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H346" s="31"/>
+      <c r="H346" s="96"/>
     </row>
     <row r="347" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A347" s="32" t="s">
+      <c r="A347" s="97" t="s">
         <v>1040</v>
       </c>
-      <c r="B347" s="33">
+      <c r="B347" s="98">
         <v>8056863624</v>
       </c>
-      <c r="C347" s="34" t="s">
+      <c r="C347" s="99" t="s">
         <v>1041</v>
       </c>
-      <c r="D347" s="34" t="s">
+      <c r="D347" s="99" t="s">
         <v>1042</v>
       </c>
-      <c r="E347" s="34" t="s">
+      <c r="E347" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F347" s="34" t="s">
+      <c r="F347" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="G347" s="30" t="s">
+      <c r="G347" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H347" s="31"/>
+      <c r="H347" s="96"/>
     </row>
     <row r="348" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A348" s="27" t="s">
+      <c r="A348" s="92" t="s">
         <v>1043</v>
       </c>
-      <c r="B348" s="28">
+      <c r="B348" s="93">
         <v>9894264424</v>
       </c>
-      <c r="C348" s="29" t="s">
+      <c r="C348" s="94" t="s">
         <v>1044</v>
       </c>
-      <c r="D348" s="29" t="s">
+      <c r="D348" s="94" t="s">
         <v>1045</v>
       </c>
-      <c r="E348" s="29" t="s">
+      <c r="E348" s="94" t="s">
         <v>433</v>
       </c>
-      <c r="F348" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G348" s="30" t="s">
+      <c r="F348" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G348" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="H348" s="31"/>
+      <c r="H348" s="96"/>
     </row>
     <row r="349" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A349" s="32" t="s">
+      <c r="A349" s="97" t="s">
         <v>1046</v>
       </c>
-      <c r="B349" s="33">
+      <c r="B349" s="98">
         <v>9952286199</v>
       </c>
-      <c r="C349" s="34" t="s">
+      <c r="C349" s="99" t="s">
         <v>1047</v>
       </c>
-      <c r="D349" s="34" t="s">
+      <c r="D349" s="99" t="s">
         <v>1048</v>
       </c>
-      <c r="E349" s="34" t="s">
+      <c r="E349" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F349" s="34" t="s">
+      <c r="F349" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G349" s="30" t="s">
+      <c r="G349" s="95" t="s">
         <v>685</v>
       </c>
-      <c r="H349" s="31"/>
+      <c r="H349" s="96"/>
     </row>
     <row r="350" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A350" s="27" t="s">
+      <c r="A350" s="92" t="s">
         <v>1049</v>
       </c>
-      <c r="B350" s="28">
+      <c r="B350" s="93">
         <v>8754905234</v>
       </c>
-      <c r="C350" s="29" t="s">
+      <c r="C350" s="94" t="s">
         <v>1050</v>
       </c>
-      <c r="D350" s="29" t="s">
+      <c r="D350" s="94" t="s">
         <v>1051</v>
       </c>
-      <c r="E350" s="29" t="s">
+      <c r="E350" s="94" t="s">
         <v>1052</v>
       </c>
-      <c r="F350" s="29" t="s">
+      <c r="F350" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="G350" s="30" t="s">
+      <c r="G350" s="95" t="s">
         <v>1052</v>
       </c>
-      <c r="H350" s="31"/>
+      <c r="H350" s="96"/>
     </row>
     <row r="351" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A351" s="32" t="s">
+      <c r="A351" s="97" t="s">
         <v>1053</v>
       </c>
-      <c r="B351" s="33">
+      <c r="B351" s="98">
         <v>9342739984</v>
       </c>
-      <c r="C351" s="34" t="s">
+      <c r="C351" s="99" t="s">
         <v>1054</v>
       </c>
-      <c r="D351" s="34" t="s">
+      <c r="D351" s="99" t="s">
         <v>1055</v>
       </c>
-      <c r="E351" s="34" t="s">
+      <c r="E351" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F351" s="34" t="s">
+      <c r="F351" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="G351" s="30" t="s">
+      <c r="G351" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H351" s="31"/>
+      <c r="H351" s="96"/>
     </row>
     <row r="352" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A352" s="27" t="s">
+      <c r="A352" s="92" t="s">
         <v>1056</v>
       </c>
-      <c r="B352" s="28">
+      <c r="B352" s="93">
         <v>9894542671</v>
       </c>
-      <c r="C352" s="29" t="s">
+      <c r="C352" s="94" t="s">
         <v>1057</v>
       </c>
-      <c r="D352" s="29" t="s">
+      <c r="D352" s="94" t="s">
         <v>1058</v>
       </c>
-      <c r="E352" s="29" t="s">
+      <c r="E352" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="F352" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G352" s="30" t="s">
+      <c r="F352" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G352" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="H352" s="31"/>
+      <c r="H352" s="96"/>
     </row>
     <row r="353" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A353" s="32" t="s">
+      <c r="A353" s="97" t="s">
         <v>1059</v>
       </c>
-      <c r="B353" s="33">
+      <c r="B353" s="98">
         <v>8883778393</v>
       </c>
-      <c r="C353" s="34" t="s">
+      <c r="C353" s="99" t="s">
         <v>1060</v>
       </c>
-      <c r="D353" s="34" t="s">
+      <c r="D353" s="99" t="s">
         <v>1061</v>
       </c>
-      <c r="E353" s="34" t="s">
+      <c r="E353" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="F353" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G353" s="30" t="s">
+      <c r="F353" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G353" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="H353" s="31"/>
+      <c r="H353" s="96"/>
     </row>
     <row r="354" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A354" s="27" t="s">
+      <c r="A354" s="92" t="s">
         <v>1062</v>
       </c>
-      <c r="B354" s="28">
+      <c r="B354" s="93">
         <v>9150488166</v>
       </c>
-      <c r="C354" s="29" t="s">
+      <c r="C354" s="94" t="s">
         <v>1063</v>
       </c>
-      <c r="D354" s="29" t="s">
+      <c r="D354" s="94" t="s">
         <v>1064</v>
       </c>
-      <c r="E354" s="29" t="s">
+      <c r="E354" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="F354" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G354" s="30" t="s">
+      <c r="F354" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G354" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="H354" s="31"/>
+      <c r="H354" s="96"/>
     </row>
     <row r="355" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A355" s="32" t="s">
+      <c r="A355" s="97" t="s">
         <v>1065</v>
       </c>
-      <c r="B355" s="33">
+      <c r="B355" s="98">
         <v>9345908969</v>
       </c>
-      <c r="C355" s="34" t="s">
+      <c r="C355" s="99" t="s">
         <v>1066</v>
       </c>
-      <c r="D355" s="34" t="s">
+      <c r="D355" s="99" t="s">
         <v>1067</v>
       </c>
-      <c r="E355" s="34" t="s">
+      <c r="E355" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F355" s="34" t="s">
+      <c r="F355" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="G355" s="30" t="s">
+      <c r="G355" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H355" s="31"/>
+      <c r="H355" s="96"/>
     </row>
     <row r="356" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A356" s="27" t="s">
+      <c r="A356" s="92" t="s">
         <v>1068</v>
       </c>
-      <c r="B356" s="28">
+      <c r="B356" s="93">
         <v>9786438834</v>
       </c>
-      <c r="C356" s="29" t="s">
+      <c r="C356" s="94" t="s">
         <v>1069</v>
       </c>
-      <c r="D356" s="29" t="s">
+      <c r="D356" s="94" t="s">
         <v>1070</v>
       </c>
-      <c r="E356" s="29" t="s">
+      <c r="E356" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F356" s="29" t="s">
+      <c r="F356" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G356" s="30" t="s">
+      <c r="G356" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="H356" s="31"/>
+      <c r="H356" s="96"/>
     </row>
     <row r="357" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A357" s="32" t="s">
+      <c r="A357" s="97" t="s">
         <v>1071</v>
       </c>
-      <c r="B357" s="33">
+      <c r="B357" s="98">
         <v>7538834442</v>
       </c>
-      <c r="C357" s="34" t="s">
+      <c r="C357" s="99" t="s">
         <v>1072</v>
       </c>
-      <c r="D357" s="34" t="s">
+      <c r="D357" s="99" t="s">
         <v>1073</v>
       </c>
-      <c r="E357" s="34" t="s">
+      <c r="E357" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F357" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G357" s="30" t="s">
+      <c r="F357" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G357" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="H357" s="31"/>
+      <c r="H357" s="96"/>
     </row>
     <row r="358" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A358" s="27" t="s">
+      <c r="A358" s="92" t="s">
         <v>1074</v>
       </c>
-      <c r="B358" s="28">
+      <c r="B358" s="93">
         <v>9176739386</v>
       </c>
-      <c r="C358" s="29" t="s">
+      <c r="C358" s="94" t="s">
         <v>1075</v>
       </c>
-      <c r="D358" s="29" t="s">
+      <c r="D358" s="94" t="s">
         <v>1076</v>
       </c>
-      <c r="E358" s="29" t="s">
+      <c r="E358" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="F358" s="29" t="s">
+      <c r="F358" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="G358" s="30" t="s">
+      <c r="G358" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H358" s="31"/>
+      <c r="H358" s="96"/>
     </row>
     <row r="359" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A359" s="32" t="s">
+      <c r="A359" s="97" t="s">
         <v>1077</v>
       </c>
-      <c r="B359" s="33">
+      <c r="B359" s="98">
         <v>8113970870</v>
       </c>
-      <c r="C359" s="34" t="s">
+      <c r="C359" s="99" t="s">
         <v>1078</v>
       </c>
-      <c r="D359" s="34" t="s">
+      <c r="D359" s="99" t="s">
         <v>1079</v>
       </c>
-      <c r="E359" s="34" t="s">
+      <c r="E359" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F359" s="34" t="s">
+      <c r="F359" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G359" s="30" t="s">
+      <c r="G359" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H359" s="31"/>
+      <c r="H359" s="96"/>
     </row>
     <row r="360" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A360" s="27" t="s">
+      <c r="A360" s="92" t="s">
         <v>1080</v>
       </c>
-      <c r="B360" s="28">
+      <c r="B360" s="93">
         <v>8807546628</v>
       </c>
-      <c r="C360" s="29" t="s">
+      <c r="C360" s="94" t="s">
         <v>1081</v>
       </c>
-      <c r="D360" s="29" t="s">
+      <c r="D360" s="94" t="s">
         <v>1082</v>
       </c>
-      <c r="E360" s="29" t="s">
+      <c r="E360" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F360" s="29" t="s">
+      <c r="F360" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G360" s="30" t="s">
+      <c r="G360" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H360" s="31"/>
+      <c r="H360" s="96"/>
     </row>
     <row r="361" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A361" s="32" t="s">
+      <c r="A361" s="97" t="s">
         <v>1083</v>
       </c>
-      <c r="B361" s="33">
+      <c r="B361" s="98">
         <v>9597727512</v>
       </c>
-      <c r="C361" s="34" t="s">
+      <c r="C361" s="99" t="s">
         <v>1084</v>
       </c>
-      <c r="D361" s="34" t="s">
+      <c r="D361" s="99" t="s">
         <v>1085</v>
       </c>
-      <c r="E361" s="34" t="s">
+      <c r="E361" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="F361" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G361" s="30" t="s">
+      <c r="F361" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G361" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="H361" s="31"/>
+      <c r="H361" s="96"/>
     </row>
     <row r="362" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A362" s="27" t="s">
+      <c r="A362" s="92" t="s">
         <v>1086</v>
       </c>
-      <c r="B362" s="28">
+      <c r="B362" s="93">
         <v>8270218407</v>
       </c>
-      <c r="C362" s="29" t="s">
+      <c r="C362" s="94" t="s">
         <v>1087</v>
       </c>
-      <c r="D362" s="29" t="s">
+      <c r="D362" s="94" t="s">
         <v>1088</v>
       </c>
-      <c r="E362" s="29" t="s">
+      <c r="E362" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="F362" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G362" s="30" t="s">
+      <c r="F362" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G362" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="H362" s="31"/>
+      <c r="H362" s="96"/>
     </row>
     <row r="363" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A363" s="32" t="s">
+      <c r="A363" s="97" t="s">
         <v>1089</v>
       </c>
-      <c r="B363" s="33">
+      <c r="B363" s="98">
         <v>7845078293</v>
       </c>
-      <c r="C363" s="34" t="s">
+      <c r="C363" s="99" t="s">
         <v>1090</v>
       </c>
-      <c r="D363" s="34" t="s">
+      <c r="D363" s="99" t="s">
         <v>1091</v>
       </c>
-      <c r="E363" s="34" t="s">
+      <c r="E363" s="99" t="s">
         <v>1092</v>
       </c>
-      <c r="F363" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G363" s="30" t="s">
+      <c r="F363" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G363" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="H363" s="31"/>
+      <c r="H363" s="96"/>
     </row>
     <row r="364" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A364" s="27" t="s">
+      <c r="A364" s="92" t="s">
         <v>1093</v>
       </c>
-      <c r="B364" s="28">
+      <c r="B364" s="93">
         <v>6383406466</v>
       </c>
-      <c r="C364" s="29" t="s">
+      <c r="C364" s="94" t="s">
         <v>1094</v>
       </c>
-      <c r="D364" s="29" t="s">
+      <c r="D364" s="94" t="s">
         <v>1095</v>
       </c>
-      <c r="E364" s="29" t="s">
+      <c r="E364" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="F364" s="29" t="s">
+      <c r="F364" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="G364" s="30" t="s">
+      <c r="G364" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H364" s="31"/>
+      <c r="H364" s="96"/>
     </row>
     <row r="365" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A365" s="32" t="s">
+      <c r="A365" s="97" t="s">
         <v>1096</v>
       </c>
-      <c r="B365" s="33">
+      <c r="B365" s="98">
         <v>9943284787</v>
       </c>
-      <c r="C365" s="34" t="s">
+      <c r="C365" s="99" t="s">
         <v>1097</v>
       </c>
-      <c r="D365" s="34" t="s">
+      <c r="D365" s="99" t="s">
         <v>1098</v>
       </c>
-      <c r="E365" s="34" t="s">
+      <c r="E365" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F365" s="34" t="s">
+      <c r="F365" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G365" s="30" t="s">
+      <c r="G365" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H365" s="31"/>
+      <c r="H365" s="96"/>
     </row>
     <row r="366" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A366" s="27" t="s">
+      <c r="A366" s="92" t="s">
         <v>1099</v>
       </c>
-      <c r="B366" s="28">
+      <c r="B366" s="93">
         <v>9600957541</v>
       </c>
-      <c r="C366" s="29" t="s">
+      <c r="C366" s="94" t="s">
         <v>1100</v>
       </c>
-      <c r="D366" s="29" t="s">
+      <c r="D366" s="94" t="s">
         <v>1101</v>
       </c>
-      <c r="E366" s="29" t="s">
+      <c r="E366" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="F366" s="29" t="s">
+      <c r="F366" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="G366" s="30" t="s">
+      <c r="G366" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H366" s="31"/>
+      <c r="H366" s="96"/>
     </row>
     <row r="367" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A367" s="32" t="s">
+      <c r="A367" s="97" t="s">
         <v>1102</v>
       </c>
-      <c r="B367" s="33">
+      <c r="B367" s="98">
         <v>9385527006</v>
       </c>
-      <c r="C367" s="34" t="s">
+      <c r="C367" s="99" t="s">
         <v>1103</v>
       </c>
-      <c r="D367" s="34" t="s">
+      <c r="D367" s="99" t="s">
         <v>1104</v>
       </c>
-      <c r="E367" s="34" t="s">
+      <c r="E367" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="F367" s="34" t="s">
+      <c r="F367" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G367" s="30" t="s">
+      <c r="G367" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="H367" s="31"/>
+      <c r="H367" s="96"/>
     </row>
     <row r="368" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A368" s="27" t="s">
+      <c r="A368" s="92" t="s">
         <v>1105</v>
       </c>
-      <c r="B368" s="28">
+      <c r="B368" s="93">
         <v>9894973023</v>
       </c>
-      <c r="C368" s="29" t="s">
+      <c r="C368" s="94" t="s">
         <v>1106</v>
       </c>
-      <c r="D368" s="29" t="s">
+      <c r="D368" s="94" t="s">
         <v>1107</v>
       </c>
-      <c r="E368" s="29" t="s">
+      <c r="E368" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="F368" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G368" s="30" t="s">
+      <c r="F368" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G368" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H368" s="31"/>
+      <c r="H368" s="96"/>
     </row>
     <row r="369" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A369" s="32" t="s">
+      <c r="A369" s="97" t="s">
         <v>1108</v>
       </c>
-      <c r="B369" s="33">
+      <c r="B369" s="98">
         <v>7708641437</v>
       </c>
-      <c r="C369" s="34" t="s">
+      <c r="C369" s="99" t="s">
         <v>1109</v>
       </c>
-      <c r="D369" s="34" t="s">
+      <c r="D369" s="99" t="s">
         <v>1110</v>
       </c>
-      <c r="E369" s="34" t="s">
+      <c r="E369" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="F369" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G369" s="30" t="s">
+      <c r="F369" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G369" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="H369" s="31"/>
+      <c r="H369" s="96"/>
     </row>
     <row r="370" spans="1:8" ht="39" thickBot="1">
-      <c r="A370" s="27" t="s">
+      <c r="A370" s="92" t="s">
         <v>1111</v>
       </c>
-      <c r="B370" s="28">
+      <c r="B370" s="93">
         <v>902598336</v>
       </c>
-      <c r="C370" s="29" t="s">
+      <c r="C370" s="94" t="s">
         <v>1112</v>
       </c>
-      <c r="D370" s="29" t="s">
+      <c r="D370" s="94" t="s">
         <v>1113</v>
       </c>
-      <c r="E370" s="29" t="s">
+      <c r="E370" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F370" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G370" s="30" t="s">
+      <c r="F370" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G370" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="H370" s="31"/>
+      <c r="H370" s="96"/>
     </row>
     <row r="371" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A371" s="32" t="s">
+      <c r="A371" s="97" t="s">
         <v>1114</v>
       </c>
-      <c r="B371" s="33">
+      <c r="B371" s="98">
         <v>8220123428</v>
       </c>
-      <c r="C371" s="34" t="s">
+      <c r="C371" s="99" t="s">
         <v>1115</v>
       </c>
-      <c r="D371" s="34" t="s">
+      <c r="D371" s="99" t="s">
         <v>1116</v>
       </c>
-      <c r="E371" s="34" t="s">
+      <c r="E371" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="F371" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G371" s="30" t="s">
+      <c r="F371" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G371" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="H371" s="31"/>
+      <c r="H371" s="96"/>
     </row>
     <row r="372" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A372" s="27" t="s">
+      <c r="A372" s="92" t="s">
         <v>1117</v>
       </c>
-      <c r="B372" s="28">
+      <c r="B372" s="93">
         <v>9445500000</v>
       </c>
-      <c r="C372" s="29" t="s">
+      <c r="C372" s="94" t="s">
         <v>1118</v>
       </c>
-      <c r="D372" s="29" t="s">
+      <c r="D372" s="94" t="s">
         <v>1119</v>
       </c>
-      <c r="E372" s="29" t="s">
+      <c r="E372" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="F372" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G372" s="30" t="s">
+      <c r="F372" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G372" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="H372" s="31"/>
+      <c r="H372" s="96"/>
     </row>
     <row r="373" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A373" s="48" t="s">
+      <c r="A373" s="102" t="s">
         <v>1120</v>
       </c>
-      <c r="B373" s="49">
+      <c r="B373" s="103">
         <v>77088664674</v>
       </c>
-      <c r="C373" s="50" t="s">
+      <c r="C373" s="104" t="s">
         <v>1121</v>
       </c>
-      <c r="D373" s="50" t="s">
+      <c r="D373" s="104" t="s">
         <v>1122</v>
       </c>
-      <c r="E373" s="50" t="s">
+      <c r="E373" s="104" t="s">
         <v>1123</v>
       </c>
-      <c r="F373" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="G373" s="51" t="s">
+      <c r="F373" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="G373" s="105" t="s">
         <v>890</v>
       </c>
-      <c r="H373" s="31"/>
+      <c r="H373" s="96"/>
     </row>
     <row r="374" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A374" s="4"/>
-      <c r="B374" s="4"/>
-      <c r="C374" s="4"/>
-      <c r="D374" s="4"/>
-      <c r="E374" s="4"/>
-      <c r="F374" s="4"/>
-      <c r="G374" s="4"/>
+      <c r="A374" s="77" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B374" s="78">
+        <v>6381053439</v>
+      </c>
+      <c r="C374" s="77" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D374" s="77" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E374" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="F374" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="G374" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="H374" s="22" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="375" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A375" s="4"/>
-      <c r="B375" s="4"/>
-      <c r="C375" s="4"/>
-      <c r="D375" s="4"/>
-      <c r="E375" s="4"/>
-      <c r="F375" s="4"/>
-      <c r="G375" s="4"/>
-    </row>
-    <row r="376" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A376" s="4"/>
-      <c r="B376" s="4"/>
-      <c r="C376" s="4"/>
-      <c r="D376" s="4"/>
-      <c r="E376" s="4"/>
-      <c r="F376" s="4"/>
-      <c r="G376" s="4"/>
-    </row>
-    <row r="377" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A377" s="4"/>
-      <c r="B377" s="4"/>
-      <c r="C377" s="4"/>
-      <c r="D377" s="4"/>
-      <c r="E377" s="4"/>
-      <c r="F377" s="4"/>
-      <c r="G377" s="4"/>
+      <c r="A375" s="82" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B375" s="83">
+        <v>9345502389</v>
+      </c>
+      <c r="C375" s="82" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D375" s="82" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E375" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="F375" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="G375" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H375" s="22" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A376" s="86" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B376" s="87">
+        <v>7339077443</v>
+      </c>
+      <c r="C376" s="88" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D376" s="88" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E376" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F376" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="G376" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="H376" s="81"/>
+    </row>
+    <row r="377" spans="1:8" ht="39" thickBot="1">
+      <c r="A377" s="82" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B377" s="83">
+        <v>6383760216</v>
+      </c>
+      <c r="C377" s="82" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D377" s="82" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E377" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F377" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="G377" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="H377" s="81"/>
     </row>
     <row r="378" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A378" s="4"/>
-      <c r="B378" s="4"/>
-      <c r="C378" s="4"/>
-      <c r="D378" s="4"/>
-      <c r="E378" s="4"/>
-      <c r="F378" s="4"/>
-      <c r="G378" s="4"/>
+      <c r="A378" s="86" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B378" s="87">
+        <v>9788962127</v>
+      </c>
+      <c r="C378" s="86" t="s">
+        <v>709</v>
+      </c>
+      <c r="D378" s="86" t="s">
+        <v>708</v>
+      </c>
+      <c r="E378" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="F378" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="G378" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H378" s="81"/>
     </row>
     <row r="379" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A379" s="4"/>
-      <c r="B379" s="4"/>
-      <c r="C379" s="4"/>
-      <c r="D379" s="4"/>
-      <c r="E379" s="4"/>
-      <c r="F379" s="4"/>
-      <c r="G379" s="4"/>
-    </row>
-    <row r="380" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A380" s="4"/>
-      <c r="B380" s="4"/>
-      <c r="C380" s="4"/>
-      <c r="D380" s="4"/>
-      <c r="E380" s="4"/>
-      <c r="F380" s="4"/>
-      <c r="G380" s="4"/>
-    </row>
-    <row r="381" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A381" s="4"/>
-      <c r="B381" s="4"/>
-      <c r="C381" s="4"/>
-      <c r="D381" s="4"/>
-      <c r="E381" s="4"/>
-      <c r="F381" s="4"/>
-      <c r="G381" s="4"/>
-    </row>
-    <row r="382" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A382" s="4"/>
-      <c r="B382" s="4"/>
-      <c r="C382" s="4"/>
-      <c r="D382" s="4"/>
-      <c r="E382" s="4"/>
-      <c r="F382" s="4"/>
-      <c r="G382" s="4"/>
-    </row>
-    <row r="383" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A383" s="4"/>
-      <c r="B383" s="4"/>
-      <c r="C383" s="4"/>
-      <c r="D383" s="4"/>
-      <c r="E383" s="4"/>
-      <c r="F383" s="4"/>
-      <c r="G383" s="4"/>
-    </row>
-    <row r="384" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A384" s="4"/>
-      <c r="B384" s="4"/>
-      <c r="C384" s="4"/>
-      <c r="D384" s="4"/>
-      <c r="E384" s="4"/>
-      <c r="F384" s="4"/>
-      <c r="G384" s="4"/>
-    </row>
-    <row r="385" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A385" s="4"/>
-      <c r="B385" s="4"/>
-      <c r="C385" s="4"/>
-      <c r="D385" s="4"/>
-      <c r="E385" s="4"/>
-      <c r="F385" s="4"/>
-      <c r="G385" s="4"/>
-    </row>
-    <row r="386" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A386" s="4"/>
-      <c r="B386" s="4"/>
-      <c r="C386" s="4"/>
-      <c r="D386" s="4"/>
-      <c r="E386" s="4"/>
-      <c r="F386" s="4"/>
-      <c r="G386" s="4"/>
-    </row>
-    <row r="387" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A387" s="4"/>
-      <c r="B387" s="4"/>
-      <c r="C387" s="4"/>
-      <c r="D387" s="4"/>
-      <c r="E387" s="4"/>
-      <c r="F387" s="4"/>
-      <c r="G387" s="4"/>
-    </row>
-    <row r="388" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A388" s="4"/>
-      <c r="B388" s="4"/>
-      <c r="C388" s="4"/>
-      <c r="D388" s="4"/>
-      <c r="E388" s="4"/>
-      <c r="F388" s="4"/>
-      <c r="G388" s="4"/>
-    </row>
-    <row r="389" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A379" s="37" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B379" s="90">
+        <v>7339440440</v>
+      </c>
+      <c r="C379" s="37" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D379" s="37" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E379" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F379" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G379" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H379" s="41" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A380" s="42" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B380" s="91">
+        <v>9345408637</v>
+      </c>
+      <c r="C380" s="42" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D380" s="42" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E380" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F380" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G380" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="H380" s="41" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A381" s="37" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B381" s="90">
+        <v>6381004766</v>
+      </c>
+      <c r="C381" s="37" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D381" s="37" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E381" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F381" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G381" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="H381" s="41"/>
+    </row>
+    <row r="382" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A382" s="42" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B382" s="91">
+        <v>9597877208</v>
+      </c>
+      <c r="C382" s="42" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D382" s="42" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E382" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F382" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G382" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="H382" s="41"/>
+    </row>
+    <row r="383" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A383" s="37" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B383" s="90">
+        <v>6379045789</v>
+      </c>
+      <c r="C383" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D383" s="37" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E383" s="37" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F383" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G383" s="40" t="s">
+        <v>890</v>
+      </c>
+      <c r="H383" s="41"/>
+    </row>
+    <row r="384" spans="1:8" ht="39" thickBot="1">
+      <c r="A384" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="B384" s="106">
+        <v>8148776356</v>
+      </c>
+      <c r="C384" s="92" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D384" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="E384" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="F384" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G384" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="H384" s="96" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A385" s="97" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B385" s="107">
+        <v>8344491119</v>
+      </c>
+      <c r="C385" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="D385" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="E385" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="F385" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="G385" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="H385" s="96" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A386" s="92" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B386" s="106">
+        <v>9600656683</v>
+      </c>
+      <c r="C386" s="108" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D386" s="108" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E386" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="F386" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G386" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="H386" s="96"/>
+    </row>
+    <row r="387" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A387" s="97" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B387" s="107">
+        <v>8072796839</v>
+      </c>
+      <c r="C387" s="97" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D387" s="97" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E387" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="F387" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="G387" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="H387" s="96"/>
+    </row>
+    <row r="388" spans="1:8" ht="26.25" thickBot="1">
+      <c r="A388" s="109" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B388" s="110">
+        <v>9840328377</v>
+      </c>
+      <c r="C388" s="111" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D388" s="111" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E388" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F388" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G388" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H388" s="96"/>
+    </row>
+    <row r="389" spans="1:8" ht="15.75" thickBot="1">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -13268,7 +13980,7 @@
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
     </row>
-    <row r="390" spans="1:7" ht="15.75" thickBot="1">
+    <row r="390" spans="1:8" ht="15.75" thickBot="1">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -13277,7 +13989,7 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="1:7" ht="15.75" thickBot="1">
+    <row r="391" spans="1:8" ht="15.75" thickBot="1">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -13286,7 +13998,7 @@
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
     </row>
-    <row r="392" spans="1:7" ht="15.75" thickBot="1">
+    <row r="392" spans="1:8" ht="15.75" thickBot="1">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -13295,7 +14007,7 @@
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="1:7" ht="15.75" thickBot="1">
+    <row r="393" spans="1:8" ht="15.75" thickBot="1">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -13304,7 +14016,7 @@
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" ht="15.75" thickBot="1">
+    <row r="394" spans="1:8" ht="15.75" thickBot="1">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -13313,7 +14025,7 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="15.75" thickBot="1">
+    <row r="395" spans="1:8" ht="15.75" thickBot="1">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -13322,7 +14034,7 @@
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" ht="15.75" thickBot="1">
+    <row r="396" spans="1:8" ht="15.75" thickBot="1">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -13331,7 +14043,7 @@
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" ht="15.75" thickBot="1">
+    <row r="397" spans="1:8" ht="15.75" thickBot="1">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -13340,7 +14052,7 @@
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="15.75" thickBot="1">
+    <row r="398" spans="1:8" ht="15.75" thickBot="1">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -13349,7 +14061,7 @@
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:7" ht="15.75" thickBot="1">
+    <row r="399" spans="1:8" ht="15.75" thickBot="1">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -13358,7 +14070,7 @@
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" ht="15.75" thickBot="1">
+    <row r="400" spans="1:8" ht="15.75" thickBot="1">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -14037,24 +14749,3026 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="48" customWidth="1"/>
+    <col min="5" max="5" width="35" style="56" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="68" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B1" s="63" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="B2" s="64" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="69"/>
+    </row>
+    <row r="3" spans="1:7" s="61" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="57" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A4" s="49">
+        <v>1</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A5" s="49">
+        <v>2</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A6" s="49">
+        <v>3</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="49">
+        <v>4</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A8" s="49">
+        <v>5</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A9" s="49">
+        <v>6</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A10" s="49">
+        <v>7</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="53"/>
+    </row>
+    <row r="11" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A11" s="49">
+        <v>8</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="53"/>
+    </row>
+    <row r="12" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A12" s="49">
+        <v>9</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="53"/>
+    </row>
+    <row r="13" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A13" s="49">
+        <v>10</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A14" s="49">
+        <v>11</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="52"/>
+    </row>
+    <row r="15" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A15" s="49">
+        <v>12</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="52"/>
+    </row>
+    <row r="16" spans="1:7" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A16" s="49">
+        <v>13</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="52"/>
+    </row>
+    <row r="17" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A17" s="49">
+        <v>14</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="52"/>
+    </row>
+    <row r="18" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A18" s="49">
+        <v>15</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="52"/>
+    </row>
+    <row r="19" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A19" s="49">
+        <v>16</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A20" s="49">
+        <v>17</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="52"/>
+    </row>
+    <row r="21" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A21" s="49">
+        <v>18</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A22" s="49">
+        <v>19</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A23" s="49">
+        <v>20</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A24" s="49">
+        <v>21</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A25" s="49">
+        <v>22</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="52"/>
+    </row>
+    <row r="26" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A26" s="49">
+        <v>23</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A27" s="49">
+        <v>24</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A28" s="49">
+        <v>25</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A29" s="49">
+        <v>26</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A30" s="49">
+        <v>27</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="55">
+        <v>2.4000000000000001E+126</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="52"/>
+    </row>
+    <row r="31" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A31" s="49">
+        <v>28</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A32" s="49">
+        <v>29</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A33" s="49">
+        <v>30</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A34" s="49">
+        <v>31</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A35" s="49">
+        <v>32</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="52"/>
+    </row>
+    <row r="36" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A36" s="49">
+        <v>33</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A37" s="49">
+        <v>34</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A38" s="49">
+        <v>35</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A39" s="49">
+        <v>36</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A40" s="49">
+        <v>37</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="52"/>
+    </row>
+    <row r="41" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A41" s="49">
+        <v>38</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="52"/>
+    </row>
+    <row r="42" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A42" s="49">
+        <v>39</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="52"/>
+    </row>
+    <row r="43" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A43" s="49">
+        <v>40</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A44" s="49">
+        <v>41</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A45" s="49">
+        <v>42</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A46" s="49">
+        <v>43</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A47" s="49">
+        <v>44</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="55">
+        <v>2.4000000000000002E+121</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="52"/>
+    </row>
+    <row r="48" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A48" s="49">
+        <v>45</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="55">
+        <v>2.3999999999999998E+103</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A49" s="49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="55">
+        <v>2.3999999999999999E+148</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A50" s="49">
+        <v>47</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A51" s="49">
+        <v>48</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A52" s="49">
+        <v>49</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="52"/>
+    </row>
+    <row r="53" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A53" s="49">
+        <v>50</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" s="50" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A54" s="49">
+        <v>51</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="49">
+        <v>52</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="67" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="49">
+        <v>53</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="49">
+        <v>54</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="52"/>
+    </row>
+    <row r="58" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="49">
+        <v>55</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="49">
+        <v>56</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="49">
+        <v>57</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="49">
+        <v>58</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="49">
+        <v>59</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="52"/>
+    </row>
+    <row r="63" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="49">
+        <v>60</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="49">
+        <v>61</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E64" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="49">
+        <v>62</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="49">
+        <v>63</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="49">
+        <v>64</v>
+      </c>
+      <c r="B67" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="52"/>
+    </row>
+    <row r="68" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="49">
+        <v>65</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="49">
+        <v>66</v>
+      </c>
+      <c r="B69" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="49">
+        <v>67</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="E70" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="49">
+        <v>68</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="49">
+        <v>69</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" s="52"/>
+    </row>
+    <row r="73" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="49">
+        <v>70</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="49">
+        <v>71</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="49">
+        <v>72</v>
+      </c>
+      <c r="B75" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="49">
+        <v>73</v>
+      </c>
+      <c r="B76" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="52"/>
+    </row>
+    <row r="77" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="49">
+        <v>74</v>
+      </c>
+      <c r="B77" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F77" s="52"/>
+    </row>
+    <row r="78" spans="1:6" s="50" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="49">
+        <v>75</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="D78" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="E78" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F78" s="52"/>
+    </row>
+    <row r="79" spans="1:6" ht="0.75" customHeight="1">
+      <c r="A79" s="49"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="52"/>
+    </row>
+    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="49"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="52"/>
+    </row>
+    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="49"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="52"/>
+    </row>
+    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="49"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="52"/>
+    </row>
+    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="49"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="52"/>
+    </row>
+    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="49"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="52"/>
+    </row>
+    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="49"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="52"/>
+    </row>
+    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="49"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="52"/>
+    </row>
+    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="49"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="52"/>
+    </row>
+    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="49"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="52"/>
+    </row>
+    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="49"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="52"/>
+    </row>
+    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="49"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.5703125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="12" style="48" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="48" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1" s="47"/>
+      <c r="B1" s="63" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="47"/>
+      <c r="B2" s="64" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="71"/>
+    </row>
+    <row r="3" spans="1:6" ht="38.25">
+      <c r="A3" s="57" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A4" s="57" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A5" s="49">
+        <v>1</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A6" s="49">
+        <v>2</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A7" s="49">
+        <v>3</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A8" s="49">
+        <v>4</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="55">
+        <v>2.3999999999999999E+142</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A9" s="49">
+        <v>5</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A10" s="49">
+        <v>6</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="50"/>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A11" s="49">
+        <v>7</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A12" s="49">
+        <v>8</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A13" s="49">
+        <v>9</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A14" s="49">
+        <v>10</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A15" s="49">
+        <v>11</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A16" s="49">
+        <v>12</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="50"/>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A17" s="49">
+        <v>13</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" s="50"/>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A18" s="49">
+        <v>14</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="50"/>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A19" s="49">
+        <v>15</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="50"/>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A20" s="49">
+        <v>16</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A21" s="49">
+        <v>17</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="50"/>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A22" s="49">
+        <v>18</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="50"/>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A23" s="49">
+        <v>19</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A24" s="49">
+        <v>20</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A25" s="49">
+        <v>21</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A26" s="49">
+        <v>22</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A27" s="49">
+        <v>23</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="50"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A28" s="49">
+        <v>24</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="50"/>
+    </row>
+    <row r="29" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A29" s="49">
+        <v>25</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="50"/>
+    </row>
+    <row r="30" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A30" s="49">
+        <v>26</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="50"/>
+    </row>
+    <row r="31" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A31" s="49">
+        <v>27</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="55">
+        <v>2.4E+125</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="50"/>
+    </row>
+    <row r="32" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A32" s="49">
+        <v>28</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A33" s="49">
+        <v>29</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A34" s="49">
+        <v>30</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A35" s="49">
+        <v>31</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A36" s="49">
+        <v>32</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="F36" s="50"/>
+    </row>
+    <row r="37" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A37" s="49">
+        <v>33</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="50"/>
+    </row>
+    <row r="38" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A38" s="49">
+        <v>34</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="50"/>
+    </row>
+    <row r="39" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A39" s="49">
+        <v>35</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="50"/>
+    </row>
+    <row r="40" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A40" s="49">
+        <v>36</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>366</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="50"/>
+    </row>
+    <row r="41" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A41" s="49">
+        <v>37</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="F41" s="50"/>
+    </row>
+    <row r="42" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A42" s="49">
+        <v>38</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="50"/>
+    </row>
+    <row r="43" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A43" s="49">
+        <v>39</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="50"/>
+    </row>
+    <row r="44" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A44" s="49">
+        <v>40</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="50"/>
+    </row>
+    <row r="45" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A45" s="49">
+        <v>41</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="50"/>
+    </row>
+    <row r="46" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A46" s="49">
+        <v>42</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>387</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="50"/>
+    </row>
+    <row r="47" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A47" s="49">
+        <v>43</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>389</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>391</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="F47" s="50"/>
+    </row>
+    <row r="48" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A48" s="49">
+        <v>44</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="50"/>
+    </row>
+    <row r="49" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A49" s="49">
+        <v>45</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>395</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="50"/>
+    </row>
+    <row r="50" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A50" s="49">
+        <v>46</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>402</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="50"/>
+    </row>
+    <row r="51" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A51" s="49">
+        <v>47</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>403</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>404</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="F51" s="50"/>
+    </row>
+    <row r="52" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A52" s="49">
+        <v>48</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="F52" s="50"/>
+    </row>
+    <row r="53" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A53" s="49">
+        <v>49</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>410</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="F53" s="50"/>
+    </row>
+    <row r="54" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A54" s="49">
+        <v>50</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="F54" s="50"/>
+    </row>
+    <row r="55" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A55" s="49">
+        <v>51</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="50"/>
+    </row>
+    <row r="56" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A56" s="49">
+        <v>52</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" s="50"/>
+    </row>
+    <row r="57" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A57" s="49">
+        <v>53</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="50"/>
+    </row>
+    <row r="58" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A58" s="49">
+        <v>54</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="50"/>
+    </row>
+    <row r="59" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A59" s="49">
+        <v>55</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="D59" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="50"/>
+    </row>
+    <row r="60" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A60" s="49">
+        <v>56</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" s="50"/>
+    </row>
+    <row r="61" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A61" s="49">
+        <v>57</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>437</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="50"/>
+    </row>
+    <row r="62" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A62" s="49">
+        <v>58</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="50"/>
+    </row>
+    <row r="63" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A63" s="49">
+        <v>59</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>441</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" s="50"/>
+    </row>
+    <row r="64" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A64" s="49">
+        <v>60</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>446</v>
+      </c>
+      <c r="E64" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="50"/>
+    </row>
+    <row r="65" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A65" s="49">
+        <v>61</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E65" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="50"/>
+    </row>
+    <row r="66" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A66" s="49">
+        <v>62</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="E66" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="50"/>
+    </row>
+    <row r="67" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A67" s="49">
+        <v>63</v>
+      </c>
+      <c r="B67" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>454</v>
+      </c>
+      <c r="D67" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="E67" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" s="50"/>
+    </row>
+    <row r="68" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A68" s="49">
+        <v>64</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="D68" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="E68" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="50"/>
+    </row>
+    <row r="69" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A69" s="49">
+        <v>65</v>
+      </c>
+      <c r="B69" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="D69" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="E69" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F69" s="50"/>
+    </row>
+    <row r="70" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A70" s="49">
+        <v>66</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>454</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="50"/>
+    </row>
+    <row r="71" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A71" s="49">
+        <v>67</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>465</v>
+      </c>
+      <c r="D71" s="51" t="s">
+        <v>466</v>
+      </c>
+      <c r="E71" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" s="50"/>
+    </row>
+    <row r="72" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A72" s="49">
+        <v>68</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>467</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="D72" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="E72" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F72" s="50"/>
+    </row>
+    <row r="73" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A73" s="49">
+        <v>69</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="D73" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="E73" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" s="50"/>
+    </row>
+    <row r="74" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A74" s="49">
+        <v>70</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="C74" s="55">
+        <v>2.4E+167</v>
+      </c>
+      <c r="D74" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="E74" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" s="50"/>
+    </row>
+    <row r="75" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A75" s="49">
+        <v>71</v>
+      </c>
+      <c r="B75" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="E75" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="50"/>
+    </row>
+    <row r="76" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A76" s="49">
+        <v>72</v>
+      </c>
+      <c r="B76" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>480</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="E76" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F76" s="50"/>
+    </row>
+    <row r="77" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A77" s="49">
+        <v>73</v>
+      </c>
+      <c r="B77" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="D77" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="E77" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="F77" s="50"/>
+    </row>
+    <row r="78" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A78" s="49">
+        <v>74</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="D78" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="E78" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="50"/>
+    </row>
+    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="49"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="50"/>
+    </row>
+    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="50"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="50"/>
+    </row>
+    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="50"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="50"/>
+    </row>
+    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="50"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="50"/>
+    </row>
+    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="50"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="50"/>
+    </row>
+    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="50"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="50"/>
+    </row>
+    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="50"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="50"/>
+    </row>
+    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="50"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="50"/>
+    </row>
+    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="50"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="50"/>
+    </row>
+    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="50"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="50"/>
+    </row>
+    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="50"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="50"/>
+    </row>
+    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="50"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="50"/>
+    </row>
+    <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="50"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>